--- a/09zbirka/IV 5.xlsx
+++ b/09zbirka/IV 5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT odeljenje 1\Desktop\Repo\math\09zbirka\01izrazi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT odeljenje 1\Desktop\Repo\math\09zbirka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB59AFE-E2E5-4B36-864B-BEAE62256D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027565D6-5CE9-4A3F-9496-862DFA28545A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -218,6 +218,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -232,9 +235,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,53 +543,54 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="9" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="14" width="5.7109375" customWidth="1"/>
+    <col min="15" max="18" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:18" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="7"/>
-      <c r="C3" s="11">
+      <c r="B3" s="8"/>
+      <c r="C3" s="6">
         <v>1.1000000000000001</v>
       </c>
       <c r="D3" s="4">
         <v>1.2</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="9">
         <v>2</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="8">
+      <c r="F3" s="10"/>
+      <c r="G3" s="9">
         <v>3</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="10"/>
       <c r="J3" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -1686,5 +1687,6 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/09zbirka/IV 5.xlsx
+++ b/09zbirka/IV 5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT odeljenje 1\Desktop\Repo\math\09zbirka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027565D6-5CE9-4A3F-9496-862DFA28545A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBADD6C1-2D06-4074-9F4F-6A3FEC35B077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -543,7 +543,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,10 +606,18 @@
       <c r="N3" s="4">
         <v>4.5</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
+      <c r="O3" s="4">
+        <v>5</v>
+      </c>
+      <c r="P3" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="R3" s="4">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -654,7 +662,9 @@
       <c r="N4" s="1">
         <v>91</v>
       </c>
-      <c r="O4" s="1"/>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -702,7 +712,9 @@
       <c r="N5" s="1">
         <v>92</v>
       </c>
-      <c r="O5" s="1"/>
+      <c r="O5" s="1">
+        <v>2</v>
+      </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -750,7 +762,9 @@
       <c r="N6" s="1">
         <v>93</v>
       </c>
-      <c r="O6" s="1"/>
+      <c r="O6" s="1">
+        <v>3</v>
+      </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -798,7 +812,9 @@
       <c r="N7" s="1">
         <v>94</v>
       </c>
-      <c r="O7" s="1"/>
+      <c r="O7" s="1">
+        <v>4</v>
+      </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -846,7 +862,9 @@
       <c r="N8" s="1">
         <v>95</v>
       </c>
-      <c r="O8" s="1"/>
+      <c r="O8" s="1">
+        <v>5</v>
+      </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -892,7 +910,9 @@
       <c r="N9" s="1">
         <v>96</v>
       </c>
-      <c r="O9" s="1"/>
+      <c r="O9" s="1">
+        <v>6</v>
+      </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -938,7 +958,9 @@
       <c r="N10" s="1">
         <v>97</v>
       </c>
-      <c r="O10" s="1"/>
+      <c r="O10" s="1">
+        <v>7</v>
+      </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -984,7 +1006,9 @@
       <c r="N11" s="1">
         <v>98</v>
       </c>
-      <c r="O11" s="1"/>
+      <c r="O11" s="1">
+        <v>8</v>
+      </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -1030,7 +1054,9 @@
       <c r="N12" s="1">
         <v>99</v>
       </c>
-      <c r="O12" s="1"/>
+      <c r="O12" s="1">
+        <v>9</v>
+      </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -1076,7 +1102,9 @@
       <c r="N13" s="1">
         <v>100</v>
       </c>
-      <c r="O13" s="1"/>
+      <c r="O13" s="1">
+        <v>10</v>
+      </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1122,7 +1150,9 @@
       <c r="N14" s="1">
         <v>101</v>
       </c>
-      <c r="O14" s="1"/>
+      <c r="O14" s="1">
+        <v>11</v>
+      </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -1168,7 +1198,9 @@
       <c r="N15" s="1">
         <v>102</v>
       </c>
-      <c r="O15" s="1"/>
+      <c r="O15" s="1">
+        <v>12</v>
+      </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -1214,7 +1246,9 @@
       <c r="N16" s="1">
         <v>103</v>
       </c>
-      <c r="O16" s="1"/>
+      <c r="O16" s="1">
+        <v>13</v>
+      </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -1260,7 +1294,9 @@
       <c r="N17" s="1">
         <v>104</v>
       </c>
-      <c r="O17" s="1"/>
+      <c r="O17" s="1">
+        <v>14</v>
+      </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -1304,7 +1340,9 @@
       <c r="N18" s="1">
         <v>105</v>
       </c>
-      <c r="O18" s="1"/>
+      <c r="O18" s="1">
+        <v>15</v>
+      </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -1346,7 +1384,9 @@
       <c r="N19" s="1">
         <v>106</v>
       </c>
-      <c r="O19" s="1"/>
+      <c r="O19" s="1">
+        <v>16</v>
+      </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -1383,7 +1423,9 @@
       <c r="N20" s="1">
         <v>107</v>
       </c>
-      <c r="O20" s="1"/>
+      <c r="O20" s="1">
+        <v>17</v>
+      </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -1418,7 +1460,9 @@
       <c r="N21" s="1">
         <v>108</v>
       </c>
-      <c r="O21" s="1"/>
+      <c r="O21" s="1">
+        <v>18</v>
+      </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -1451,7 +1495,9 @@
       <c r="N22" s="1">
         <v>109</v>
       </c>
-      <c r="O22" s="1"/>
+      <c r="O22" s="1">
+        <v>19</v>
+      </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -1478,7 +1524,9 @@
       <c r="N23" s="1">
         <v>110</v>
       </c>
-      <c r="O23" s="3"/>
+      <c r="O23" s="1">
+        <v>20</v>
+      </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>

--- a/09zbirka/IV 5.xlsx
+++ b/09zbirka/IV 5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT odeljenje 1\Desktop\Repo\math\09zbirka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBADD6C1-2D06-4074-9F4F-6A3FEC35B077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEFE9C3-BCAA-4F92-AFD9-612DD8CB3B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="930" windowWidth="24795" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Успех ученика по предметима..." sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Јана Ћирић</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>3p</t>
+  </si>
+  <si>
+    <t>ba</t>
+  </si>
+  <si>
+    <t>jela</t>
   </si>
 </sst>
 </file>
@@ -543,7 +549,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,8 +632,8 @@
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1">
-        <v>1</v>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D4" s="1">
         <v>27</v>
@@ -776,8 +782,8 @@
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1">
-        <v>4</v>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D7" s="1">
         <v>30</v>

--- a/09zbirka/IV 5.xlsx
+++ b/09zbirka/IV 5.xlsx
@@ -5,22 +5,35 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT odeljenje 1\Desktop\Repo\math\09zbirka\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT odeljenje 2\Documents\GitHub\math\09zbirka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEFE9C3-BCAA-4F92-AFD9-612DD8CB3B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148C5448-16D5-4F9E-85FE-F1310A03978C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="930" windowWidth="24795" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Успех ученика по предметима..." sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" forceFullCalc="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Јана Ћирић</t>
   </si>
@@ -83,6 +96,9 @@
   </si>
   <si>
     <t>jela</t>
+  </si>
+  <si>
+    <t>om</t>
   </si>
 </sst>
 </file>
@@ -548,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,8 +1042,8 @@
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="1">
-        <v>9</v>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D12" s="1">
         <v>35</v>
@@ -1170,8 +1186,8 @@
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="1">
-        <v>12</v>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D15" s="1">
         <v>38</v>

--- a/09zbirka/IV 5.xlsx
+++ b/09zbirka/IV 5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT odeljenje 2\Documents\GitHub\math\09zbirka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148C5448-16D5-4F9E-85FE-F1310A03978C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96B7A12-20CF-468F-B7BF-0B600ACFA47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,24 +16,11 @@
     <sheet name="Успех ученика по предметима..." sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" forceFullCalc="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>Јана Ћирић</t>
   </si>
@@ -564,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,8 +1317,8 @@
       <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="1">
-        <v>15</v>
+      <c r="C18" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D18" s="1">
         <v>41</v>
@@ -1491,8 +1478,8 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
-      <c r="C22" s="1">
-        <v>19</v>
+      <c r="C22" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1">

--- a/09zbirka/IV 5.xlsx
+++ b/09zbirka/IV 5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT odeljenje 2\Documents\GitHub\math\09zbirka\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT odeljenje 1\Desktop\Repo\math\09zbirka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96B7A12-20CF-468F-B7BF-0B600ACFA47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701156C4-98BB-4DCE-964C-C9CC0860FF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Успех ученика по предметима..." sheetId="1" r:id="rId1"/>
@@ -549,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="R44" sqref="R34:R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,9 +674,15 @@
       <c r="O4" s="1">
         <v>1</v>
       </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>25</v>
+      </c>
+      <c r="R4" s="1">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -724,9 +730,15 @@
       <c r="O5" s="1">
         <v>2</v>
       </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
+      <c r="P5" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>26</v>
+      </c>
+      <c r="R5" s="1">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -774,9 +786,15 @@
       <c r="O6" s="1">
         <v>3</v>
       </c>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
+      <c r="P6" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>27</v>
+      </c>
+      <c r="R6" s="1">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -824,9 +842,15 @@
       <c r="O7" s="1">
         <v>4</v>
       </c>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
+      <c r="P7" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>28</v>
+      </c>
+      <c r="R7" s="1">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -874,9 +898,15 @@
       <c r="O8" s="1">
         <v>5</v>
       </c>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
+      <c r="P8" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>29</v>
+      </c>
+      <c r="R8" s="1">
+        <v>46</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -922,9 +952,15 @@
       <c r="O9" s="1">
         <v>6</v>
       </c>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
+      <c r="P9" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>30</v>
+      </c>
+      <c r="R9" s="1">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -970,9 +1006,15 @@
       <c r="O10" s="1">
         <v>7</v>
       </c>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
+      <c r="P10" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>31</v>
+      </c>
+      <c r="R10" s="1">
+        <v>48</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1018,9 +1060,15 @@
       <c r="O11" s="1">
         <v>8</v>
       </c>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
+      <c r="P11" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>32</v>
+      </c>
+      <c r="R11" s="1">
+        <v>49</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1066,9 +1114,15 @@
       <c r="O12" s="1">
         <v>9</v>
       </c>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
+      <c r="P12" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>33</v>
+      </c>
+      <c r="R12" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1114,9 +1168,15 @@
       <c r="O13" s="1">
         <v>10</v>
       </c>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
+      <c r="P13" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>34</v>
+      </c>
+      <c r="R13" s="1">
+        <v>51</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1162,9 +1222,15 @@
       <c r="O14" s="1">
         <v>11</v>
       </c>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
+      <c r="P14" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>35</v>
+      </c>
+      <c r="R14" s="1">
+        <v>52</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1210,9 +1276,15 @@
       <c r="O15" s="1">
         <v>12</v>
       </c>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
+      <c r="P15" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>36</v>
+      </c>
+      <c r="R15" s="1">
+        <v>53</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1258,9 +1330,15 @@
       <c r="O16" s="1">
         <v>13</v>
       </c>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
+      <c r="P16" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>37</v>
+      </c>
+      <c r="R16" s="1">
+        <v>54</v>
+      </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -1306,9 +1384,15 @@
       <c r="O17" s="1">
         <v>14</v>
       </c>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
+      <c r="P17" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>38</v>
+      </c>
+      <c r="R17" s="1">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -1352,9 +1436,15 @@
       <c r="O18" s="1">
         <v>15</v>
       </c>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
+      <c r="P18" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>39</v>
+      </c>
+      <c r="R18" s="1">
+        <v>56</v>
+      </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -1396,9 +1486,15 @@
       <c r="O19" s="1">
         <v>16</v>
       </c>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
+      <c r="P19" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>40</v>
+      </c>
+      <c r="R19" s="1">
+        <v>57</v>
+      </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
@@ -1435,9 +1531,15 @@
       <c r="O20" s="1">
         <v>17</v>
       </c>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
+      <c r="P20" s="1">
+        <v>17</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>41</v>
+      </c>
+      <c r="R20" s="1">
+        <v>58</v>
+      </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
@@ -1472,9 +1574,13 @@
       <c r="O21" s="1">
         <v>18</v>
       </c>
-      <c r="P21" s="1"/>
+      <c r="P21" s="1">
+        <v>18</v>
+      </c>
       <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
+      <c r="R21" s="1">
+        <v>59</v>
+      </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
@@ -1507,9 +1613,13 @@
       <c r="O22" s="1">
         <v>19</v>
       </c>
-      <c r="P22" s="1"/>
+      <c r="P22" s="1">
+        <v>19</v>
+      </c>
       <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
+      <c r="R22" s="1">
+        <v>60</v>
+      </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
@@ -1536,9 +1646,13 @@
       <c r="O23" s="1">
         <v>20</v>
       </c>
-      <c r="P23" s="3"/>
+      <c r="P23" s="1">
+        <v>20</v>
+      </c>
       <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
+      <c r="R23" s="1">
+        <v>61</v>
+      </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
@@ -1563,9 +1677,13 @@
         <v>111</v>
       </c>
       <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
+      <c r="P24" s="1">
+        <v>21</v>
+      </c>
       <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
+      <c r="R24" s="1">
+        <v>62</v>
+      </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
@@ -1590,9 +1708,13 @@
         <v>112</v>
       </c>
       <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
+      <c r="P25" s="1">
+        <v>22</v>
+      </c>
       <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
+      <c r="R25" s="1">
+        <v>63</v>
+      </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
@@ -1615,9 +1737,13 @@
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
+      <c r="P26" s="1">
+        <v>23</v>
+      </c>
       <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
+      <c r="R26" s="1">
+        <v>64</v>
+      </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
@@ -1640,9 +1766,13 @@
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
+      <c r="P27" s="1">
+        <v>24</v>
+      </c>
       <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
+      <c r="R27" s="1">
+        <v>65</v>
+      </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C28" s="1">
@@ -1666,7 +1796,9 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
+      <c r="R28" s="1">
+        <v>66</v>
+      </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C29" s="1">
@@ -1690,7 +1822,9 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
+      <c r="R29" s="1">
+        <v>67</v>
+      </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
@@ -1712,7 +1846,9 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
+      <c r="R30" s="1">
+        <v>68</v>
+      </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J31" s="1">
@@ -1721,6 +1857,9 @@
       <c r="M31" s="1">
         <v>88</v>
       </c>
+      <c r="R31" s="1">
+        <v>69</v>
+      </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J32" s="1">
@@ -1729,11 +1868,50 @@
       <c r="M32" s="1">
         <v>89</v>
       </c>
-    </row>
-    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="R32" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="13:18" x14ac:dyDescent="0.25">
       <c r="M33" s="1">
         <v>90</v>
       </c>
+      <c r="R33" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="R34" s="1"/>
+    </row>
+    <row r="35" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="R35" s="1"/>
+    </row>
+    <row r="36" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="R36" s="1"/>
+    </row>
+    <row r="37" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="R37" s="1"/>
+    </row>
+    <row r="38" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="R38" s="1"/>
+    </row>
+    <row r="39" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="R39" s="1"/>
+    </row>
+    <row r="40" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="R40" s="1"/>
+    </row>
+    <row r="41" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="R41" s="1"/>
+    </row>
+    <row r="42" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="R42" s="1"/>
+    </row>
+    <row r="43" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="R43" s="1"/>
+    </row>
+    <row r="44" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="R44" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/09zbirka/IV 5.xlsx
+++ b/09zbirka/IV 5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT odeljenje 1\Desktop\Repo\math\09zbirka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701156C4-98BB-4DCE-964C-C9CC0860FF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC52B2C-67C4-4323-9819-BBABC8A838CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Јана Ћирић</t>
   </si>
@@ -86,6 +86,15 @@
   </si>
   <si>
     <t>om</t>
+  </si>
+  <si>
+    <t>ne</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>jel</t>
   </si>
 </sst>
 </file>
@@ -131,7 +140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -206,11 +215,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -244,6 +262,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R44"/>
+  <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="R44" sqref="R34:R44"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,8 +590,8 @@
     <col min="15" max="18" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:18" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:23" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -582,8 +609,11 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B3" s="8"/>
       <c r="C3" s="6">
         <v>1.1000000000000001</v>
@@ -627,8 +657,20 @@
       <c r="R3" s="4">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T3" s="12">
+        <v>1</v>
+      </c>
+      <c r="U3" s="12">
+        <v>2</v>
+      </c>
+      <c r="V3" s="12">
+        <v>3</v>
+      </c>
+      <c r="W3" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -683,8 +725,17 @@
       <c r="R4" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T4" s="14">
+        <v>1</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -739,8 +790,14 @@
       <c r="R5" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T5" s="14">
+        <v>2</v>
+      </c>
+      <c r="U5" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -795,8 +852,14 @@
       <c r="R6" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T6" s="14">
+        <v>3</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -851,8 +914,14 @@
       <c r="R7" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T7" s="14">
+        <v>4</v>
+      </c>
+      <c r="U7" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -907,8 +976,14 @@
       <c r="R8" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T8" s="14">
+        <v>5</v>
+      </c>
+      <c r="U8" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -961,8 +1036,14 @@
       <c r="R9" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T9" s="14">
+        <v>6</v>
+      </c>
+      <c r="U9" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1015,8 +1096,14 @@
       <c r="R10" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T10" s="14">
+        <v>7</v>
+      </c>
+      <c r="U10" s="13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1069,8 +1156,14 @@
       <c r="R11" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T11" s="14">
+        <v>8</v>
+      </c>
+      <c r="U11" s="13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1123,8 +1216,14 @@
       <c r="R12" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T12" s="14">
+        <v>9</v>
+      </c>
+      <c r="U12" s="13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1177,8 +1276,14 @@
       <c r="R13" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T13" s="14">
+        <v>10</v>
+      </c>
+      <c r="U13" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1231,8 +1336,14 @@
       <c r="R14" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T14" s="14">
+        <v>11</v>
+      </c>
+      <c r="U14" s="13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1285,8 +1396,14 @@
       <c r="R15" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T15" s="14">
+        <v>12</v>
+      </c>
+      <c r="U15" s="13">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1339,8 +1456,14 @@
       <c r="R16" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T16" s="14">
+        <v>13</v>
+      </c>
+      <c r="U16" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -1393,8 +1516,14 @@
       <c r="R17" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T17" s="14">
+        <v>14</v>
+      </c>
+      <c r="U17" s="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -1445,8 +1574,14 @@
       <c r="R18" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T18" s="14">
+        <v>15</v>
+      </c>
+      <c r="U18" s="13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -1495,8 +1630,14 @@
       <c r="R19" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T19" s="14">
+        <v>16</v>
+      </c>
+      <c r="U19" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="5" t="s">
         <v>16</v>
@@ -1540,8 +1681,14 @@
       <c r="R20" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T20" s="14">
+        <v>17</v>
+      </c>
+      <c r="U20" s="13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="5" t="s">
         <v>16</v>
@@ -1581,8 +1728,11 @@
       <c r="R21" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U21" s="13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="1" t="s">
         <v>21</v>
@@ -1620,8 +1770,11 @@
       <c r="R22" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U22" s="13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="5" t="s">
         <v>17</v>
@@ -1653,8 +1806,11 @@
       <c r="R23" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U23" s="13">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="1">
         <v>21</v>
@@ -1684,8 +1840,11 @@
       <c r="R24" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U24" s="13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="1">
         <v>22</v>
@@ -1715,8 +1874,11 @@
       <c r="R25" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U25" s="13">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="1">
         <v>23</v>
@@ -1745,7 +1907,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="1">
         <v>24</v>
@@ -1774,7 +1936,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C28" s="1">
         <v>25</v>
       </c>
@@ -1800,7 +1962,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C29" s="1">
         <v>26</v>
       </c>
@@ -1826,7 +1988,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1850,7 +2012,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="J31" s="1">
         <v>28</v>
       </c>
@@ -1861,7 +2023,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="J32" s="1">
         <v>29</v>
       </c>

--- a/09zbirka/IV 5.xlsx
+++ b/09zbirka/IV 5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT odeljenje 1\Desktop\Repo\math\09zbirka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC52B2C-67C4-4323-9819-BBABC8A838CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB094F86-59D7-42A8-83A5-509CA9567CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>Јана Ћирић</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>jel</t>
+  </si>
+  <si>
+    <t>solved</t>
+  </si>
+  <si>
+    <t>jana</t>
   </si>
 </sst>
 </file>
@@ -228,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -248,6 +254,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -263,13 +278,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -579,7 +588,7 @@
   <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,44 +601,44 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:23" ht="26.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
       <c r="T2">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="8"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="6">
         <v>1.1000000000000001</v>
       </c>
       <c r="D3" s="4">
         <v>1.2</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="12">
         <v>2</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9">
+      <c r="F3" s="13"/>
+      <c r="G3" s="12">
         <v>3</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="13"/>
       <c r="J3" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -657,16 +666,16 @@
       <c r="R3" s="4">
         <v>6.3</v>
       </c>
-      <c r="T3" s="12">
+      <c r="T3" s="7">
         <v>1</v>
       </c>
-      <c r="U3" s="12">
+      <c r="U3" s="7">
         <v>2</v>
       </c>
-      <c r="V3" s="12">
+      <c r="V3" s="7">
         <v>3</v>
       </c>
-      <c r="W3" s="12">
+      <c r="W3" s="7">
         <v>4</v>
       </c>
     </row>
@@ -725,14 +734,17 @@
       <c r="R4" s="1">
         <v>42</v>
       </c>
-      <c r="T4" s="14">
+      <c r="T4" s="9">
         <v>1</v>
       </c>
-      <c r="U4" s="13" t="s">
+      <c r="U4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="V4" s="13">
+      <c r="V4" s="8">
         <v>40</v>
+      </c>
+      <c r="W4" s="15">
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -790,11 +802,17 @@
       <c r="R5" s="1">
         <v>43</v>
       </c>
-      <c r="T5" s="14">
+      <c r="T5" s="9">
         <v>2</v>
       </c>
-      <c r="U5" s="13" t="s">
+      <c r="U5" s="8" t="s">
         <v>22</v>
+      </c>
+      <c r="V5" s="8">
+        <v>41</v>
+      </c>
+      <c r="W5" s="15">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -852,11 +870,17 @@
       <c r="R6" s="1">
         <v>44</v>
       </c>
-      <c r="T6" s="14">
+      <c r="T6" s="9">
         <v>3</v>
       </c>
-      <c r="U6" s="13" t="s">
+      <c r="U6" s="8" t="s">
         <v>19</v>
+      </c>
+      <c r="V6" s="8">
+        <v>42</v>
+      </c>
+      <c r="W6" s="15">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -914,11 +938,17 @@
       <c r="R7" s="1">
         <v>45</v>
       </c>
-      <c r="T7" s="14">
+      <c r="T7" s="9">
         <v>4</v>
       </c>
-      <c r="U7" s="13" t="s">
+      <c r="U7" s="8" t="s">
         <v>23</v>
+      </c>
+      <c r="V7" s="8">
+        <v>43</v>
+      </c>
+      <c r="W7" s="15">
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -976,11 +1006,17 @@
       <c r="R8" s="1">
         <v>46</v>
       </c>
-      <c r="T8" s="14">
+      <c r="T8" s="9">
         <v>5</v>
       </c>
-      <c r="U8" s="13" t="s">
+      <c r="U8" s="8" t="s">
         <v>24</v>
+      </c>
+      <c r="V8" s="8">
+        <v>44</v>
+      </c>
+      <c r="W8" s="15">
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -1036,11 +1072,17 @@
       <c r="R9" s="1">
         <v>47</v>
       </c>
-      <c r="T9" s="14">
+      <c r="T9" s="9">
         <v>6</v>
       </c>
-      <c r="U9" s="13" t="s">
+      <c r="U9" s="8" t="s">
         <v>21</v>
+      </c>
+      <c r="V9" s="8">
+        <v>45</v>
+      </c>
+      <c r="W9" s="15">
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -1096,11 +1138,17 @@
       <c r="R10" s="1">
         <v>48</v>
       </c>
-      <c r="T10" s="14">
+      <c r="T10" s="9">
         <v>7</v>
       </c>
-      <c r="U10" s="13">
-        <v>24</v>
+      <c r="U10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="V10" s="8">
+        <v>46</v>
+      </c>
+      <c r="W10" s="15">
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -1156,11 +1204,17 @@
       <c r="R11" s="1">
         <v>49</v>
       </c>
-      <c r="T11" s="14">
+      <c r="T11" s="9">
         <v>8</v>
       </c>
-      <c r="U11" s="13">
+      <c r="U11" s="8" t="s">
         <v>25</v>
+      </c>
+      <c r="V11" s="8">
+        <v>47</v>
+      </c>
+      <c r="W11" s="15">
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -1216,11 +1270,17 @@
       <c r="R12" s="1">
         <v>50</v>
       </c>
-      <c r="T12" s="14">
+      <c r="T12" s="9">
         <v>9</v>
       </c>
-      <c r="U12" s="13">
+      <c r="U12" s="8" t="s">
         <v>26</v>
+      </c>
+      <c r="V12" s="8">
+        <v>48</v>
+      </c>
+      <c r="W12" s="15">
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -1276,11 +1336,17 @@
       <c r="R13" s="1">
         <v>51</v>
       </c>
-      <c r="T13" s="14">
+      <c r="T13" s="9">
         <v>10</v>
       </c>
-      <c r="U13" s="13" t="s">
+      <c r="U13" s="8" t="s">
         <v>22</v>
+      </c>
+      <c r="V13" s="8">
+        <v>49</v>
+      </c>
+      <c r="W13" s="15">
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -1336,11 +1402,17 @@
       <c r="R14" s="1">
         <v>52</v>
       </c>
-      <c r="T14" s="14">
+      <c r="T14" s="9">
         <v>11</v>
       </c>
-      <c r="U14" s="13">
+      <c r="U14" s="8">
         <v>28</v>
+      </c>
+      <c r="V14" s="8">
+        <v>50</v>
+      </c>
+      <c r="W14" s="15">
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -1396,11 +1468,17 @@
       <c r="R15" s="1">
         <v>53</v>
       </c>
-      <c r="T15" s="14">
+      <c r="T15" s="9">
         <v>12</v>
       </c>
-      <c r="U15" s="13">
+      <c r="U15" s="8">
         <v>29</v>
+      </c>
+      <c r="V15" s="8">
+        <v>51</v>
+      </c>
+      <c r="W15" s="15">
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -1456,14 +1534,20 @@
       <c r="R16" s="1">
         <v>54</v>
       </c>
-      <c r="T16" s="14">
+      <c r="T16" s="9">
         <v>13</v>
       </c>
-      <c r="U16" s="13">
+      <c r="U16" s="8">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V16" s="8">
+        <v>52</v>
+      </c>
+      <c r="W16" s="15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -1516,14 +1600,20 @@
       <c r="R17" s="1">
         <v>55</v>
       </c>
-      <c r="T17" s="14">
+      <c r="T17" s="9">
         <v>14</v>
       </c>
-      <c r="U17" s="13">
+      <c r="U17" s="8">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V17" s="8">
+        <v>53</v>
+      </c>
+      <c r="W17" s="15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -1574,14 +1664,20 @@
       <c r="R18" s="1">
         <v>56</v>
       </c>
-      <c r="T18" s="14">
+      <c r="T18" s="9">
         <v>15</v>
       </c>
-      <c r="U18" s="13">
+      <c r="U18" s="8">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V18" s="8">
+        <v>54</v>
+      </c>
+      <c r="W18" s="15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -1630,14 +1726,20 @@
       <c r="R19" s="1">
         <v>57</v>
       </c>
-      <c r="T19" s="14">
+      <c r="T19" s="9">
         <v>16</v>
       </c>
-      <c r="U19" s="13">
+      <c r="U19" s="8">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V19" s="8">
+        <v>55</v>
+      </c>
+      <c r="W19" s="15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="5" t="s">
         <v>16</v>
@@ -1681,14 +1783,20 @@
       <c r="R20" s="1">
         <v>58</v>
       </c>
-      <c r="T20" s="14">
+      <c r="T20" s="9">
         <v>17</v>
       </c>
-      <c r="U20" s="13">
+      <c r="U20" s="8">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V20" s="8">
+        <v>56</v>
+      </c>
+      <c r="W20" s="15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="5" t="s">
         <v>16</v>
@@ -1728,11 +1836,17 @@
       <c r="R21" s="1">
         <v>59</v>
       </c>
-      <c r="U21" s="13">
+      <c r="U21" s="8">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V21" s="8">
+        <v>57</v>
+      </c>
+      <c r="W21" s="15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="1" t="s">
         <v>21</v>
@@ -1770,11 +1884,14 @@
       <c r="R22" s="1">
         <v>60</v>
       </c>
-      <c r="U22" s="13">
+      <c r="U22" s="8">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W22" s="15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="5" t="s">
         <v>17</v>
@@ -1806,11 +1923,14 @@
       <c r="R23" s="1">
         <v>61</v>
       </c>
-      <c r="U23" s="13">
+      <c r="U23" s="8">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W23" s="15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="1">
         <v>21</v>
@@ -1840,11 +1960,14 @@
       <c r="R24" s="1">
         <v>62</v>
       </c>
-      <c r="U24" s="13">
+      <c r="U24" s="8">
         <v>38</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W24" s="15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="1">
         <v>22</v>
@@ -1874,11 +1997,14 @@
       <c r="R25" s="1">
         <v>63</v>
       </c>
-      <c r="U25" s="13">
+      <c r="U25" s="8">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W25" s="15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="1">
         <v>23</v>
@@ -1906,8 +2032,11 @@
       <c r="R26" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W26" s="15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="1">
         <v>24</v>
@@ -1935,8 +2064,11 @@
       <c r="R27" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W27" s="15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C28" s="1">
         <v>25</v>
       </c>
@@ -1961,8 +2093,11 @@
       <c r="R28" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W28" s="15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C29" s="1">
         <v>26</v>
       </c>
@@ -1987,8 +2122,11 @@
       <c r="R29" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W29" s="15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -2011,8 +2149,11 @@
       <c r="R30" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W30" s="15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="J31" s="1">
         <v>28</v>
       </c>
@@ -2022,8 +2163,11 @@
       <c r="R31" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W31" s="15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="J32" s="1">
         <v>29</v>
       </c>
@@ -2033,46 +2177,73 @@
       <c r="R32" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="33" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="W32" s="15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="13:23" x14ac:dyDescent="0.25">
       <c r="M33" s="1">
         <v>90</v>
       </c>
       <c r="R33" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="34" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="W33" s="15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="13:23" x14ac:dyDescent="0.25">
       <c r="R34" s="1"/>
-    </row>
-    <row r="35" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="W34" s="15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="13:23" x14ac:dyDescent="0.25">
       <c r="R35" s="1"/>
-    </row>
-    <row r="36" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="W35" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="13:23" x14ac:dyDescent="0.25">
       <c r="R36" s="1"/>
-    </row>
-    <row r="37" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="W36" s="15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="13:23" x14ac:dyDescent="0.25">
       <c r="R37" s="1"/>
-    </row>
-    <row r="38" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="W37" s="15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="13:23" x14ac:dyDescent="0.25">
       <c r="R38" s="1"/>
-    </row>
-    <row r="39" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="W38" s="15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="13:23" x14ac:dyDescent="0.25">
       <c r="R39" s="1"/>
-    </row>
-    <row r="40" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="W39" s="15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="13:23" x14ac:dyDescent="0.25">
       <c r="R40" s="1"/>
-    </row>
-    <row r="41" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="W40" s="15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="13:23" x14ac:dyDescent="0.25">
       <c r="R41" s="1"/>
     </row>
-    <row r="42" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="13:23" x14ac:dyDescent="0.25">
       <c r="R42" s="1"/>
     </row>
-    <row r="43" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="13:23" x14ac:dyDescent="0.25">
       <c r="R43" s="1"/>
     </row>
-    <row r="44" spans="13:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="13:23" x14ac:dyDescent="0.25">
       <c r="R44" s="1"/>
     </row>
   </sheetData>

--- a/09zbirka/IV 5.xlsx
+++ b/09zbirka/IV 5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT odeljenje 1\Desktop\Repo\math\09zbirka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB094F86-59D7-42A8-83A5-509CA9567CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E1B7A3-4344-45E6-ADCA-E1853880B451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Јана Ћирић</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>jana</t>
+  </si>
+  <si>
+    <t>jana 40</t>
   </si>
 </sst>
 </file>
@@ -234,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -277,9 +280,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -588,7 +588,7 @@
   <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,10 +740,10 @@
       <c r="U4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="V4" s="8">
-        <v>40</v>
-      </c>
-      <c r="W4" s="15">
+      <c r="V4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4" s="8">
         <v>58</v>
       </c>
     </row>
@@ -808,10 +808,10 @@
       <c r="U5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="8">
-        <v>41</v>
-      </c>
-      <c r="W5" s="15">
+      <c r="V5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="W5" s="8">
         <v>59</v>
       </c>
     </row>
@@ -876,10 +876,10 @@
       <c r="U6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="V6" s="8">
-        <v>42</v>
-      </c>
-      <c r="W6" s="15">
+      <c r="V6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="W6" s="8">
         <v>60</v>
       </c>
     </row>
@@ -944,10 +944,10 @@
       <c r="U7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="V7" s="8">
-        <v>43</v>
-      </c>
-      <c r="W7" s="15">
+      <c r="V7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="W7" s="8">
         <v>61</v>
       </c>
     </row>
@@ -1012,10 +1012,10 @@
       <c r="U8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="V8" s="8">
-        <v>44</v>
-      </c>
-      <c r="W8" s="15">
+      <c r="V8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="8">
         <v>62</v>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       <c r="V9" s="8">
         <v>45</v>
       </c>
-      <c r="W9" s="15">
+      <c r="W9" s="8">
         <v>63</v>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
       <c r="V10" s="8">
         <v>46</v>
       </c>
-      <c r="W10" s="15">
+      <c r="W10" s="8">
         <v>64</v>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       <c r="V11" s="8">
         <v>47</v>
       </c>
-      <c r="W11" s="15">
+      <c r="W11" s="8">
         <v>65</v>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       <c r="V12" s="8">
         <v>48</v>
       </c>
-      <c r="W12" s="15">
+      <c r="W12" s="8">
         <v>66</v>
       </c>
     </row>
@@ -1345,7 +1345,7 @@
       <c r="V13" s="8">
         <v>49</v>
       </c>
-      <c r="W13" s="15">
+      <c r="W13" s="8">
         <v>67</v>
       </c>
     </row>
@@ -1411,7 +1411,7 @@
       <c r="V14" s="8">
         <v>50</v>
       </c>
-      <c r="W14" s="15">
+      <c r="W14" s="8">
         <v>68</v>
       </c>
     </row>
@@ -1477,7 +1477,7 @@
       <c r="V15" s="8">
         <v>51</v>
       </c>
-      <c r="W15" s="15">
+      <c r="W15" s="8">
         <v>69</v>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
       <c r="V16" s="8">
         <v>52</v>
       </c>
-      <c r="W16" s="15">
+      <c r="W16" s="8">
         <v>70</v>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
       <c r="V17" s="8">
         <v>53</v>
       </c>
-      <c r="W17" s="15">
+      <c r="W17" s="8">
         <v>71</v>
       </c>
     </row>
@@ -1673,7 +1673,7 @@
       <c r="V18" s="8">
         <v>54</v>
       </c>
-      <c r="W18" s="15">
+      <c r="W18" s="8">
         <v>72</v>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
       <c r="V19" s="8">
         <v>55</v>
       </c>
-      <c r="W19" s="15">
+      <c r="W19" s="8">
         <v>73</v>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       <c r="V20" s="8">
         <v>56</v>
       </c>
-      <c r="W20" s="15">
+      <c r="W20" s="8">
         <v>74</v>
       </c>
     </row>
@@ -1842,7 +1842,7 @@
       <c r="V21" s="8">
         <v>57</v>
       </c>
-      <c r="W21" s="15">
+      <c r="W21" s="8">
         <v>75</v>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       <c r="U22" s="8">
         <v>36</v>
       </c>
-      <c r="W22" s="15">
+      <c r="W22" s="8">
         <v>76</v>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       <c r="U23" s="8">
         <v>37</v>
       </c>
-      <c r="W23" s="15">
+      <c r="W23" s="8">
         <v>77</v>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
       <c r="U24" s="8">
         <v>38</v>
       </c>
-      <c r="W24" s="15">
+      <c r="W24" s="8">
         <v>78</v>
       </c>
     </row>
@@ -2000,7 +2000,7 @@
       <c r="U25" s="8">
         <v>39</v>
       </c>
-      <c r="W25" s="15">
+      <c r="W25" s="8">
         <v>79</v>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       <c r="R26" s="1">
         <v>64</v>
       </c>
-      <c r="W26" s="15">
+      <c r="W26" s="8">
         <v>80</v>
       </c>
     </row>
@@ -2064,7 +2064,7 @@
       <c r="R27" s="1">
         <v>65</v>
       </c>
-      <c r="W27" s="15">
+      <c r="W27" s="8">
         <v>81</v>
       </c>
     </row>
@@ -2093,7 +2093,7 @@
       <c r="R28" s="1">
         <v>66</v>
       </c>
-      <c r="W28" s="15">
+      <c r="W28" s="8">
         <v>82</v>
       </c>
     </row>
@@ -2122,7 +2122,7 @@
       <c r="R29" s="1">
         <v>67</v>
       </c>
-      <c r="W29" s="15">
+      <c r="W29" s="8">
         <v>83</v>
       </c>
     </row>
@@ -2149,7 +2149,7 @@
       <c r="R30" s="1">
         <v>68</v>
       </c>
-      <c r="W30" s="15">
+      <c r="W30" s="8">
         <v>84</v>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       <c r="R31" s="1">
         <v>69</v>
       </c>
-      <c r="W31" s="15">
+      <c r="W31" s="8">
         <v>85</v>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
       <c r="R32" s="1">
         <v>70</v>
       </c>
-      <c r="W32" s="15">
+      <c r="W32" s="8">
         <v>86</v>
       </c>
     </row>
@@ -2188,49 +2188,49 @@
       <c r="R33" s="1">
         <v>71</v>
       </c>
-      <c r="W33" s="15">
+      <c r="W33" s="8">
         <v>87</v>
       </c>
     </row>
     <row r="34" spans="13:23" x14ac:dyDescent="0.25">
       <c r="R34" s="1"/>
-      <c r="W34" s="15">
+      <c r="W34" s="8">
         <v>88</v>
       </c>
     </row>
     <row r="35" spans="13:23" x14ac:dyDescent="0.25">
       <c r="R35" s="1"/>
-      <c r="W35" s="15">
+      <c r="W35" s="8">
         <v>89</v>
       </c>
     </row>
     <row r="36" spans="13:23" x14ac:dyDescent="0.25">
       <c r="R36" s="1"/>
-      <c r="W36" s="15">
+      <c r="W36" s="8">
         <v>90</v>
       </c>
     </row>
     <row r="37" spans="13:23" x14ac:dyDescent="0.25">
       <c r="R37" s="1"/>
-      <c r="W37" s="15">
+      <c r="W37" s="8">
         <v>91</v>
       </c>
     </row>
     <row r="38" spans="13:23" x14ac:dyDescent="0.25">
       <c r="R38" s="1"/>
-      <c r="W38" s="15">
+      <c r="W38" s="8">
         <v>92</v>
       </c>
     </row>
     <row r="39" spans="13:23" x14ac:dyDescent="0.25">
       <c r="R39" s="1"/>
-      <c r="W39" s="15">
+      <c r="W39" s="8">
         <v>93</v>
       </c>
     </row>
     <row r="40" spans="13:23" x14ac:dyDescent="0.25">
       <c r="R40" s="1"/>
-      <c r="W40" s="15">
+      <c r="W40" s="8">
         <v>94</v>
       </c>
     </row>
